--- a/banco de dados01.xlsx
+++ b/banco de dados01.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\FELIPE\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{299009AB-CC9F-4437-A6B5-5F0BA06A61A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D34CF33-EBFA-4F5F-BA16-A1AD8D143B43}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{77066BEA-ABE2-44E0-BCC3-E960750C3817}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="69">
   <si>
     <t>ID.FUNC</t>
   </si>
@@ -44,9 +44,6 @@
     <t>NOME</t>
   </si>
   <si>
-    <t>FUNCIONARIOS</t>
-  </si>
-  <si>
     <t>JULIO</t>
   </si>
   <si>
@@ -173,9 +170,6 @@
     <t>nesse banco de dados será,criado para facilitar a vida do cliente e do proprietario da livraria, nele estará as informações dos livros, o seu valor, a quantidade do estoque ,tambem está as informações dos clientes e dos funcionário, e a forma de pagamento. Apartir da entidade VENDAS poderá localizar todas as informações necesarias para registrar na livraria.</t>
   </si>
   <si>
-    <t>Felipe, Manoel, Pedro cabelo, Matheus cabelo</t>
-  </si>
-  <si>
     <t>rua</t>
   </si>
   <si>
@@ -192,6 +186,63 @@
   </si>
   <si>
     <t>ENDERECO</t>
+  </si>
+  <si>
+    <t>P1</t>
+  </si>
+  <si>
+    <t>P6</t>
+  </si>
+  <si>
+    <t>P2</t>
+  </si>
+  <si>
+    <t>P3</t>
+  </si>
+  <si>
+    <t>P4</t>
+  </si>
+  <si>
+    <t>P5</t>
+  </si>
+  <si>
+    <t>P7</t>
+  </si>
+  <si>
+    <t>F1</t>
+  </si>
+  <si>
+    <t>F2</t>
+  </si>
+  <si>
+    <t>F3</t>
+  </si>
+  <si>
+    <t>F4</t>
+  </si>
+  <si>
+    <t>F5</t>
+  </si>
+  <si>
+    <t>ID.SALARIO</t>
+  </si>
+  <si>
+    <t>S1</t>
+  </si>
+  <si>
+    <t>S2</t>
+  </si>
+  <si>
+    <t>S3</t>
+  </si>
+  <si>
+    <t>S4</t>
+  </si>
+  <si>
+    <t>S5</t>
+  </si>
+  <si>
+    <t>FUNCIONARIO</t>
   </si>
 </sst>
 </file>
@@ -278,7 +329,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="23">
+  <borders count="22">
     <border>
       <left/>
       <right/>
@@ -493,36 +544,6 @@
       <left style="medium">
         <color indexed="64"/>
       </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
       <right style="medium">
         <color indexed="64"/>
       </right>
@@ -582,13 +603,21 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="62">
+  <cellXfs count="57">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -630,7 +659,7 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="18" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="16" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
@@ -639,27 +668,27 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -686,31 +715,25 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="21" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -732,16 +755,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>15240</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>16933</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>563880</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>83820</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>770466</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>118533</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -755,9 +778,9 @@
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="4853940" y="4084320"/>
-          <a:ext cx="1226820" cy="502920"/>
+        <a:xfrm flipH="1">
+          <a:off x="2006600" y="4326467"/>
+          <a:ext cx="1972733" cy="211666"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -786,15 +809,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>7620</xdr:colOff>
+      <xdr:colOff>50800</xdr:colOff>
       <xdr:row>11</xdr:row>
       <xdr:rowOff>83820</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
       <xdr:colOff>601980</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>53340</xdr:rowOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>59267</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -809,66 +832,11 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="4846320" y="2110740"/>
-          <a:ext cx="3268980" cy="2065020"/>
+          <a:off x="5003800" y="2166620"/>
+          <a:ext cx="3700780" cy="1728047"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>66677</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>9528</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>581026</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>123827</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="10" name="Conector: Angulado 9">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DD9BE441-2A70-0975-65CA-D5BA8797F215}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm rot="5400000">
-          <a:off x="7600952" y="2581278"/>
-          <a:ext cx="1638299" cy="514349"/>
-        </a:xfrm>
-        <a:prstGeom prst="bentConnector3">
-          <a:avLst>
-            <a:gd name="adj1" fmla="val 50000"/>
-          </a:avLst>
         </a:prstGeom>
         <a:ln>
           <a:tailEnd type="triangle"/>
@@ -894,15 +862,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>922020</xdr:colOff>
+      <xdr:colOff>812800</xdr:colOff>
       <xdr:row>25</xdr:row>
-      <xdr:rowOff>137160</xdr:rowOff>
+      <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>30480</xdr:colOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>885825</xdr:colOff>
       <xdr:row>27</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:rowOff>16934</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -917,8 +885,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="4922520" y="4831080"/>
-          <a:ext cx="53340" cy="281940"/>
+          <a:off x="4813300" y="4762500"/>
+          <a:ext cx="73025" cy="321734"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -946,122 +914,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>15240</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>121920</xdr:rowOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>721995</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>22860</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>754380</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="17" name="Conector de Seta Reta 16">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8CC3C897-4B91-FD14-B557-E644ABD64288}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipH="1" flipV="1">
-          <a:off x="2613660" y="1958340"/>
-          <a:ext cx="1348740" cy="2430780"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>15240</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>45720</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>830580</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>91440</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="22" name="Conector de Seta Reta 21">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8C97E724-A7CE-B7AA-E6ED-EE8A35F628B2}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2613660" y="1882140"/>
-          <a:ext cx="2217420" cy="45720"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>731520</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>137160</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>47625</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -1076,7 +938,7 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7370445" y="5004435"/>
+          <a:off x="7360920" y="5080635"/>
           <a:ext cx="97155" cy="348615"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
@@ -1262,11 +1124,219 @@
     </xdr:cxnSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>428625</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>778933</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>93134</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="11" name="Conector de Seta Reta 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A9E75908-4538-62C8-9606-4B7043FB9A0E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="1038225" y="3327400"/>
+          <a:ext cx="2949575" cy="795867"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>770466</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="16" name="Conector de Seta Reta 15">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6EE2537C-89B2-5C58-FD17-7714F8A57790}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="3246967" y="1786467"/>
+          <a:ext cx="732366" cy="402166"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>67733</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>110067</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>16933</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="32" name="Conector de Seta Reta 31">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{26D79BD7-9595-8911-9A7D-FF9576F9B139}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="5020733" y="4326467"/>
+          <a:ext cx="3098800" cy="186266"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>567267</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>101600</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>160866</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="37" name="Conector de Seta Reta 36">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0585771B-877D-B9C3-DC84-B60DF175E40C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="8669867" y="3632200"/>
+          <a:ext cx="143933" cy="550333"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1586,10 +1656,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C332A42F-D51D-4794-93B6-DBFA9E690F65}">
-  <dimension ref="A10:P39"/>
+  <dimension ref="B9:W39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D7" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="S31" sqref="S31"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="P24" sqref="P24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1602,574 +1672,616 @@
     <col min="10" max="10" width="11.33203125" customWidth="1"/>
     <col min="11" max="11" width="9.88671875" customWidth="1"/>
     <col min="14" max="14" width="9.44140625" customWidth="1"/>
-    <col min="15" max="15" width="10" style="3" customWidth="1"/>
+    <col min="15" max="15" width="10" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="10" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="11" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B11" s="39" t="s">
+    <row r="9" spans="2:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="R9" s="56"/>
+      <c r="S9" s="56"/>
+      <c r="T9" s="56"/>
+      <c r="U9" s="56"/>
+      <c r="V9" s="56"/>
+      <c r="W9" s="56"/>
+    </row>
+    <row r="10" spans="2:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G10" s="36" t="s">
+        <v>7</v>
+      </c>
+      <c r="H10" s="54"/>
+      <c r="I10" s="55"/>
+      <c r="R10" s="56"/>
+      <c r="S10" s="56"/>
+      <c r="T10" s="56"/>
+      <c r="U10" s="56"/>
+      <c r="V10" s="56"/>
+      <c r="W10" s="56"/>
+    </row>
+    <row r="11" spans="2:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B11" s="41" t="s">
+        <v>68</v>
+      </c>
+      <c r="C11" s="43"/>
+      <c r="D11" s="43"/>
+      <c r="E11" s="44"/>
+      <c r="G11" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="H11" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I11" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="M11" s="41" t="s">
+        <v>11</v>
+      </c>
+      <c r="N11" s="42"/>
+      <c r="O11" s="43"/>
+      <c r="P11" s="44"/>
+      <c r="R11" s="56"/>
+      <c r="S11" s="56"/>
+      <c r="T11" s="56"/>
+      <c r="U11" s="56"/>
+      <c r="V11" s="56"/>
+      <c r="W11" s="56"/>
+    </row>
+    <row r="12" spans="2:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B12" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E12" s="53" t="s">
+        <v>7</v>
+      </c>
+      <c r="G12" s="32" t="s">
+        <v>63</v>
+      </c>
+      <c r="H12" s="10">
+        <v>3000</v>
+      </c>
+      <c r="I12" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="M12" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="N12" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="O12" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="P12" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="R12" s="56"/>
+      <c r="S12" s="56"/>
+      <c r="T12" s="56"/>
+      <c r="U12" s="56"/>
+      <c r="V12" s="56"/>
+      <c r="W12" s="56"/>
+    </row>
+    <row r="13" spans="2:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B13" s="32" t="s">
+        <v>57</v>
+      </c>
+      <c r="C13" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="C11" s="40"/>
-      <c r="D11" s="41"/>
-      <c r="H11" s="42" t="s">
+      <c r="D13" s="6">
+        <v>30</v>
+      </c>
+      <c r="E13" s="32" t="s">
+        <v>63</v>
+      </c>
+      <c r="G13" s="32" t="s">
+        <v>64</v>
+      </c>
+      <c r="H13" s="8">
+        <v>3000</v>
+      </c>
+      <c r="I13" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="M13" s="33" t="s">
+        <v>50</v>
+      </c>
+      <c r="N13" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="O13" s="17">
+        <v>100</v>
+      </c>
+      <c r="P13" s="4">
         <v>8</v>
       </c>
-      <c r="I11" s="43"/>
-      <c r="J11" s="44"/>
-      <c r="M11" s="39" t="s">
+      <c r="R13" s="56"/>
+      <c r="S13" s="56"/>
+      <c r="T13" s="56"/>
+      <c r="U13" s="56"/>
+      <c r="V13" s="56"/>
+      <c r="W13" s="56"/>
+    </row>
+    <row r="14" spans="2:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B14" s="32" t="s">
+        <v>58</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="D14" s="6">
+        <v>28</v>
+      </c>
+      <c r="E14" s="32" t="s">
+        <v>64</v>
+      </c>
+      <c r="G14" s="32" t="s">
+        <v>65</v>
+      </c>
+      <c r="H14" s="12">
+        <v>3000</v>
+      </c>
+      <c r="I14" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="M14" s="33" t="s">
+        <v>52</v>
+      </c>
+      <c r="N14" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="O14" s="17">
+        <v>65</v>
+      </c>
+      <c r="P14" s="4">
+        <v>7</v>
+      </c>
+      <c r="R14" s="56"/>
+      <c r="S14" s="48" t="s">
+        <v>43</v>
+      </c>
+      <c r="T14" s="49"/>
+      <c r="U14" s="49"/>
+      <c r="V14" s="49"/>
+      <c r="W14" s="49"/>
+    </row>
+    <row r="15" spans="2:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B15" s="32" t="s">
+        <v>59</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="D15" s="6">
+        <v>29</v>
+      </c>
+      <c r="E15" s="32" t="s">
+        <v>65</v>
+      </c>
+      <c r="G15" s="32" t="s">
+        <v>66</v>
+      </c>
+      <c r="H15" s="12">
+        <v>3000</v>
+      </c>
+      <c r="I15" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="M15" s="33" t="s">
+        <v>53</v>
+      </c>
+      <c r="N15" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="O15" s="17">
+        <v>75</v>
+      </c>
+      <c r="P15" s="18">
+        <v>9</v>
+      </c>
+      <c r="S15" s="49"/>
+      <c r="T15" s="49"/>
+      <c r="U15" s="49"/>
+      <c r="V15" s="49"/>
+      <c r="W15" s="49"/>
+    </row>
+    <row r="16" spans="2:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B16" s="32" t="s">
+        <v>60</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D16" s="6">
+        <v>26</v>
+      </c>
+      <c r="E16" s="32" t="s">
+        <v>66</v>
+      </c>
+      <c r="G16" s="32" t="s">
+        <v>67</v>
+      </c>
+      <c r="H16" s="12">
+        <v>3000</v>
+      </c>
+      <c r="I16" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="M16" s="33" t="s">
+        <v>54</v>
+      </c>
+      <c r="N16" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="O16" s="17">
+        <v>70</v>
+      </c>
+      <c r="P16" s="16">
         <v>12</v>
       </c>
-      <c r="N11" s="45"/>
-      <c r="O11" s="46"/>
-      <c r="P11" s="47"/>
-    </row>
-    <row r="12" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B12" s="4" t="s">
+      <c r="S16" s="49"/>
+      <c r="T16" s="49"/>
+      <c r="U16" s="49"/>
+      <c r="V16" s="49"/>
+      <c r="W16" s="49"/>
+    </row>
+    <row r="17" spans="2:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B17" s="32" t="s">
+        <v>61</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D17" s="6">
+        <v>25</v>
+      </c>
+      <c r="E17" s="32" t="s">
+        <v>67</v>
+      </c>
+      <c r="M17" s="33" t="s">
+        <v>55</v>
+      </c>
+      <c r="N17" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="O17" s="17">
+        <v>20</v>
+      </c>
+      <c r="P17" s="4">
+        <v>6</v>
+      </c>
+      <c r="S17" s="49"/>
+      <c r="T17" s="49"/>
+      <c r="U17" s="49"/>
+      <c r="V17" s="49"/>
+      <c r="W17" s="49"/>
+    </row>
+    <row r="18" spans="2:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="M18" s="33" t="s">
+        <v>51</v>
+      </c>
+      <c r="N18" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="O18" s="17">
+        <v>60</v>
+      </c>
+      <c r="P18" s="4">
+        <v>7</v>
+      </c>
+      <c r="S18" s="49"/>
+      <c r="T18" s="49"/>
+      <c r="U18" s="49"/>
+      <c r="V18" s="49"/>
+      <c r="W18" s="49"/>
+    </row>
+    <row r="19" spans="2:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="M19" s="33" t="s">
+        <v>56</v>
+      </c>
+      <c r="N19" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="O19" s="17">
+        <v>30</v>
+      </c>
+      <c r="P19" s="4">
+        <v>8</v>
+      </c>
+      <c r="S19" s="49"/>
+      <c r="T19" s="49"/>
+      <c r="U19" s="49"/>
+      <c r="V19" s="49"/>
+      <c r="W19" s="49"/>
+    </row>
+    <row r="20" spans="2:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G20" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="S20" s="49"/>
+      <c r="T20" s="49"/>
+      <c r="U20" s="49"/>
+      <c r="V20" s="49"/>
+      <c r="W20" s="49"/>
+    </row>
+    <row r="21" spans="2:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G21" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="S21" s="49"/>
+      <c r="T21" s="49"/>
+      <c r="U21" s="49"/>
+      <c r="V21" s="49"/>
+      <c r="W21" s="49"/>
+    </row>
+    <row r="22" spans="2:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="F22" s="1"/>
+      <c r="G22" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C12" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="D12" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="H12" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="I12" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="J12" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="M12" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="N12" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="O12" s="16" t="s">
-        <v>9</v>
-      </c>
-      <c r="P12" s="15" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="13" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B13" s="33">
-        <v>214</v>
-      </c>
-      <c r="C13" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="D13" s="7">
+      <c r="S22" s="49"/>
+      <c r="T22" s="49"/>
+      <c r="U22" s="49"/>
+      <c r="V22" s="49"/>
+      <c r="W22" s="49"/>
+    </row>
+    <row r="23" spans="2:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G23" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="L23" s="45" t="s">
+        <v>23</v>
+      </c>
+      <c r="M23" s="46"/>
+      <c r="N23" s="47"/>
+      <c r="S23" s="49"/>
+      <c r="T23" s="49"/>
+      <c r="U23" s="49"/>
+      <c r="V23" s="49"/>
+      <c r="W23" s="49"/>
+    </row>
+    <row r="24" spans="2:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C24" s="23" t="s">
+        <v>31</v>
+      </c>
+      <c r="G24" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="L24" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="M24" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="N24" s="22"/>
+      <c r="S24" s="49"/>
+      <c r="T24" s="49"/>
+      <c r="U24" s="49"/>
+      <c r="V24" s="49"/>
+      <c r="W24" s="49"/>
+    </row>
+    <row r="25" spans="2:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C25" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="H13" s="34">
-        <v>214</v>
-      </c>
-      <c r="I13" s="11">
-        <v>3000</v>
-      </c>
-      <c r="J13" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="M13" s="36">
-        <v>201454</v>
-      </c>
-      <c r="N13" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="O13" s="18">
-        <v>100</v>
-      </c>
-      <c r="P13" s="5">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="14" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B14" s="33">
-        <v>123</v>
-      </c>
-      <c r="C14" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="D14" s="7">
-        <v>28</v>
-      </c>
-      <c r="H14" s="34">
-        <v>123</v>
-      </c>
-      <c r="I14" s="9">
-        <v>3000</v>
-      </c>
-      <c r="J14" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="M14" s="36">
-        <v>452145</v>
-      </c>
-      <c r="N14" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="O14" s="18">
-        <v>65</v>
-      </c>
-      <c r="P14" s="5">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="15" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B15" s="33">
-        <v>100</v>
-      </c>
-      <c r="C15" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="D15" s="7">
-        <v>29</v>
-      </c>
-      <c r="H15" s="34">
-        <v>100</v>
-      </c>
-      <c r="I15" s="13">
-        <v>3000</v>
-      </c>
-      <c r="J15" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="M15" s="36">
-        <v>784512</v>
-      </c>
-      <c r="N15" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="O15" s="18">
-        <v>75</v>
-      </c>
-      <c r="P15" s="19">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="16" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B16" s="33">
-        <v>360</v>
-      </c>
-      <c r="C16" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="D16" s="7">
+      <c r="G25" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="L25" s="33" t="s">
+        <v>50</v>
+      </c>
+      <c r="M25" s="37" t="s">
+        <v>24</v>
+      </c>
+      <c r="N25" s="38"/>
+      <c r="S25" s="49"/>
+      <c r="T25" s="49"/>
+      <c r="U25" s="49"/>
+      <c r="V25" s="49"/>
+      <c r="W25" s="49"/>
+    </row>
+    <row r="26" spans="2:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C26" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="L26" s="33" t="s">
+        <v>52</v>
+      </c>
+      <c r="M26" s="37" t="s">
+        <v>25</v>
+      </c>
+      <c r="N26" s="38"/>
+      <c r="S26" s="49"/>
+      <c r="T26" s="49"/>
+      <c r="U26" s="49"/>
+      <c r="V26" s="49"/>
+      <c r="W26" s="49"/>
+    </row>
+    <row r="27" spans="2:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C27" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="L27" s="33" t="s">
+        <v>53</v>
+      </c>
+      <c r="M27" s="37" t="s">
+        <v>24</v>
+      </c>
+      <c r="N27" s="38"/>
+      <c r="S27" s="49"/>
+      <c r="T27" s="49"/>
+      <c r="U27" s="49"/>
+      <c r="V27" s="49"/>
+      <c r="W27" s="49"/>
+    </row>
+    <row r="28" spans="2:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C28" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="F28" s="50" t="s">
+        <v>36</v>
+      </c>
+      <c r="G28" s="51"/>
+      <c r="I28" s="34" t="s">
+        <v>38</v>
+      </c>
+      <c r="L28" s="33" t="s">
+        <v>54</v>
+      </c>
+      <c r="M28" s="37" t="s">
         <v>26</v>
       </c>
-      <c r="H16" s="35">
-        <v>360</v>
-      </c>
-      <c r="I16" s="13">
-        <v>3000</v>
-      </c>
-      <c r="J16" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="M16" s="36">
-        <v>769542</v>
-      </c>
-      <c r="N16" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="O16" s="18">
-        <v>70</v>
-      </c>
-      <c r="P16" s="17">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="17" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B17" s="33">
-        <v>120</v>
-      </c>
-      <c r="C17" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="D17" s="7">
-        <v>25</v>
-      </c>
-      <c r="H17" s="35">
-        <v>120</v>
-      </c>
-      <c r="I17" s="13">
-        <v>3000</v>
-      </c>
-      <c r="J17" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="M17" s="36">
-        <v>489621</v>
-      </c>
-      <c r="N17" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="O17" s="18">
-        <v>20</v>
-      </c>
-      <c r="P17" s="5">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="18" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="M18" s="36">
-        <v>659532</v>
-      </c>
-      <c r="N18" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="O18" s="18">
-        <v>60</v>
-      </c>
-      <c r="P18" s="5">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="19" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="M19" s="36">
-        <v>489635</v>
-      </c>
-      <c r="N19" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="O19" s="18">
-        <v>30</v>
-      </c>
-      <c r="P19" s="5">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="20" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="21" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G21" s="1"/>
-      <c r="L21" s="48" t="s">
-        <v>24</v>
-      </c>
-      <c r="M21" s="49"/>
-      <c r="N21" s="50"/>
-    </row>
-    <row r="22" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="51" t="s">
+      <c r="N28" s="38"/>
+      <c r="S28" s="49"/>
+      <c r="T28" s="49"/>
+      <c r="U28" s="49"/>
+      <c r="V28" s="49"/>
+      <c r="W28" s="49"/>
+    </row>
+    <row r="29" spans="2:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C29" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="F29" s="24" t="s">
+        <v>37</v>
+      </c>
+      <c r="G29" s="19" t="s">
+        <v>39</v>
+      </c>
+      <c r="I29" s="25" t="s">
+        <v>48</v>
+      </c>
+      <c r="L29" s="33" t="s">
+        <v>55</v>
+      </c>
+      <c r="M29" s="37" t="s">
+        <v>26</v>
+      </c>
+      <c r="N29" s="38"/>
+      <c r="S29" s="49"/>
+      <c r="T29" s="49"/>
+      <c r="U29" s="49"/>
+      <c r="V29" s="49"/>
+      <c r="W29" s="49"/>
+    </row>
+    <row r="30" spans="2:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="F30" s="24">
+        <v>24745</v>
+      </c>
+      <c r="G30" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="I30" s="27" t="s">
+        <v>47</v>
+      </c>
+      <c r="L30" s="33" t="s">
+        <v>51</v>
+      </c>
+      <c r="M30" s="37" t="s">
+        <v>26</v>
+      </c>
+      <c r="N30" s="38"/>
+      <c r="S30" s="49"/>
+      <c r="T30" s="49"/>
+      <c r="U30" s="49"/>
+      <c r="V30" s="49"/>
+      <c r="W30" s="49"/>
+    </row>
+    <row r="31" spans="2:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="F31" s="24">
+        <v>24746</v>
+      </c>
+      <c r="G31" s="19" t="s">
+        <v>40</v>
+      </c>
+      <c r="I31" s="35" t="s">
+        <v>41</v>
+      </c>
+      <c r="L31" s="33" t="s">
+        <v>56</v>
+      </c>
+      <c r="M31" s="39" t="s">
+        <v>27</v>
+      </c>
+      <c r="N31" s="40"/>
+      <c r="S31" s="49"/>
+      <c r="T31" s="49"/>
+      <c r="U31" s="49"/>
+      <c r="V31" s="49"/>
+      <c r="W31" s="49"/>
+    </row>
+    <row r="32" spans="2:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D32" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="F32" s="24">
+        <v>24747</v>
+      </c>
+      <c r="G32" s="19" t="s">
+        <v>41</v>
+      </c>
+      <c r="I32" s="30" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="33" spans="4:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D33" s="25" t="s">
         <v>44</v>
       </c>
-      <c r="B22" s="52"/>
-      <c r="C22" s="52"/>
-      <c r="D22" s="52"/>
-      <c r="E22" s="52"/>
-      <c r="F22" s="2"/>
-      <c r="G22" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="J22" s="24" t="s">
-        <v>32</v>
-      </c>
-      <c r="L22" s="21" t="s">
-        <v>13</v>
-      </c>
-      <c r="M22" s="22" t="s">
-        <v>24</v>
-      </c>
-      <c r="N22" s="23"/>
-    </row>
-    <row r="23" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="52"/>
-      <c r="B23" s="52"/>
-      <c r="C23" s="52"/>
-      <c r="D23" s="52"/>
-      <c r="E23" s="52"/>
-      <c r="G23" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="J23" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="L23" s="37">
-        <v>201454</v>
-      </c>
-      <c r="M23" s="56" t="s">
-        <v>25</v>
-      </c>
-      <c r="N23" s="57"/>
-    </row>
-    <row r="24" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="52"/>
-      <c r="B24" s="52"/>
-      <c r="C24" s="52"/>
-      <c r="D24" s="52"/>
-      <c r="E24" s="52"/>
-      <c r="G24" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="J24" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="L24" s="37">
-        <v>452145</v>
-      </c>
-      <c r="M24" s="56" t="s">
-        <v>26</v>
-      </c>
-      <c r="N24" s="57"/>
-    </row>
-    <row r="25" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A25" s="52"/>
-      <c r="B25" s="52"/>
-      <c r="C25" s="52"/>
-      <c r="D25" s="52"/>
-      <c r="E25" s="52"/>
-      <c r="G25" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="J25" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="L25" s="37">
-        <v>784512</v>
-      </c>
-      <c r="M25" s="56" t="s">
-        <v>25</v>
-      </c>
-      <c r="N25" s="57"/>
-    </row>
-    <row r="26" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="52"/>
-      <c r="B26" s="52"/>
-      <c r="C26" s="52"/>
-      <c r="D26" s="52"/>
-      <c r="E26" s="52"/>
-      <c r="G26" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="J26" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="L26" s="37">
-        <v>769542</v>
-      </c>
-      <c r="M26" s="56" t="s">
-        <v>27</v>
-      </c>
-      <c r="N26" s="57"/>
-    </row>
-    <row r="27" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A27" s="52"/>
-      <c r="B27" s="52"/>
-      <c r="C27" s="52"/>
-      <c r="D27" s="52"/>
-      <c r="E27" s="52"/>
-      <c r="J27" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="L27" s="37">
-        <v>489621</v>
-      </c>
-      <c r="M27" s="56" t="s">
-        <v>27</v>
-      </c>
-      <c r="N27" s="57"/>
-    </row>
-    <row r="28" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A28" s="52"/>
-      <c r="B28" s="52"/>
-      <c r="C28" s="52"/>
-      <c r="D28" s="52"/>
-      <c r="E28" s="52"/>
-      <c r="F28" s="55" t="s">
-        <v>37</v>
-      </c>
-      <c r="G28" s="53"/>
-      <c r="I28" s="60" t="s">
-        <v>39</v>
-      </c>
-      <c r="L28" s="37">
-        <v>659532</v>
-      </c>
-      <c r="M28" s="56" t="s">
-        <v>27</v>
-      </c>
-      <c r="N28" s="57"/>
-    </row>
-    <row r="29" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A29" s="52"/>
-      <c r="B29" s="52"/>
-      <c r="C29" s="52"/>
-      <c r="D29" s="52"/>
-      <c r="E29" s="52"/>
-      <c r="F29" s="25" t="s">
-        <v>38</v>
-      </c>
-      <c r="G29" s="20" t="s">
-        <v>40</v>
-      </c>
-      <c r="I29" s="26" t="s">
-        <v>50</v>
-      </c>
-      <c r="L29" s="38">
-        <v>489635</v>
-      </c>
-      <c r="M29" s="58" t="s">
-        <v>28</v>
-      </c>
-      <c r="N29" s="59"/>
-    </row>
-    <row r="30" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A30" s="52"/>
-      <c r="B30" s="52"/>
-      <c r="C30" s="52"/>
-      <c r="D30" s="52"/>
-      <c r="E30" s="52"/>
-      <c r="F30" s="25">
-        <v>24745</v>
-      </c>
-      <c r="G30" s="20" t="s">
-        <v>39</v>
-      </c>
-      <c r="I30" s="28" t="s">
-        <v>49</v>
-      </c>
-      <c r="K30" s="7" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="31" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A31" s="52"/>
-      <c r="B31" s="52"/>
-      <c r="C31" s="52"/>
-      <c r="D31" s="52"/>
-      <c r="E31" s="52"/>
-      <c r="F31" s="25">
-        <v>24746</v>
-      </c>
-      <c r="G31" s="20" t="s">
-        <v>41</v>
-      </c>
-      <c r="I31" s="61" t="s">
+      <c r="F33" s="24">
+        <v>24748</v>
+      </c>
+      <c r="G33" s="19" t="s">
         <v>42</v>
       </c>
-      <c r="K31" s="26" t="s">
+      <c r="I33" s="31" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="34" spans="4:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D34" s="26" t="s">
+        <v>45</v>
+      </c>
+      <c r="I34" s="35" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="35" spans="4:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D35" s="27" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A32" s="52"/>
-      <c r="B32" s="52"/>
-      <c r="C32" s="52"/>
-      <c r="D32" s="52"/>
-      <c r="E32" s="52"/>
-      <c r="F32" s="25">
-        <v>24747</v>
-      </c>
-      <c r="G32" s="20" t="s">
-        <v>42</v>
-      </c>
-      <c r="I32" s="31" t="s">
-        <v>50</v>
-      </c>
-      <c r="K32" s="27" t="s">
+      <c r="I35" s="28" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="36" spans="4:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="I36" s="29" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="33" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A33" s="52"/>
-      <c r="B33" s="52"/>
-      <c r="C33" s="52"/>
-      <c r="D33" s="52"/>
-      <c r="E33" s="52"/>
-      <c r="F33" s="25">
-        <v>24748</v>
-      </c>
-      <c r="G33" s="20" t="s">
-        <v>43</v>
-      </c>
-      <c r="I33" s="32" t="s">
-        <v>49</v>
-      </c>
-      <c r="K33" s="28" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="34" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A34" s="52"/>
-      <c r="B34" s="52"/>
-      <c r="C34" s="52"/>
-      <c r="D34" s="52"/>
-      <c r="E34" s="52"/>
-      <c r="I34" s="61" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A35" s="52"/>
-      <c r="B35" s="52"/>
-      <c r="C35" s="52"/>
-      <c r="D35" s="52"/>
-      <c r="E35" s="52"/>
-      <c r="I35" s="29" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="36" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A36" s="52"/>
-      <c r="B36" s="52"/>
-      <c r="C36" s="52"/>
-      <c r="D36" s="52"/>
-      <c r="E36" s="52"/>
-      <c r="I36" s="30" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A37" s="52"/>
-      <c r="B37" s="52"/>
-      <c r="C37" s="52"/>
-      <c r="D37" s="52"/>
-      <c r="E37" s="52"/>
-    </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A38" s="52"/>
-      <c r="B38" s="52"/>
-      <c r="C38" s="52"/>
-      <c r="D38" s="52"/>
-      <c r="E38" s="52"/>
-    </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A39" s="52"/>
-      <c r="B39" s="52"/>
-      <c r="C39" s="52"/>
-      <c r="D39" s="52"/>
-      <c r="E39" s="52"/>
-      <c r="F39" s="54" t="s">
-        <v>45</v>
-      </c>
-      <c r="G39" s="54"/>
-      <c r="H39" s="54"/>
-      <c r="I39" s="54"/>
-      <c r="J39" s="54"/>
-      <c r="K39" s="54"/>
-      <c r="L39" s="54"/>
-      <c r="M39" s="54"/>
+    <row r="39" spans="4:13" x14ac:dyDescent="0.3">
+      <c r="F39" s="52"/>
+      <c r="G39" s="52"/>
+      <c r="H39" s="52"/>
+      <c r="I39" s="52"/>
+      <c r="J39" s="52"/>
+      <c r="K39" s="52"/>
+      <c r="L39" s="52"/>
+      <c r="M39" s="52"/>
     </row>
   </sheetData>
-  <mergeCells count="14">
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="H11:J11"/>
+  <mergeCells count="6">
     <mergeCell ref="M11:P11"/>
-    <mergeCell ref="L21:N21"/>
-    <mergeCell ref="A22:E39"/>
+    <mergeCell ref="L23:N23"/>
+    <mergeCell ref="S14:W31"/>
     <mergeCell ref="F28:G28"/>
     <mergeCell ref="F39:M39"/>
-    <mergeCell ref="M23:N23"/>
-    <mergeCell ref="M24:N24"/>
-    <mergeCell ref="M25:N25"/>
-    <mergeCell ref="M26:N26"/>
-    <mergeCell ref="M27:N27"/>
-    <mergeCell ref="M28:N28"/>
-    <mergeCell ref="M29:N29"/>
+    <mergeCell ref="B11:E11"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
